--- a/data/CS4400_initial_data.xlsx
+++ b/data/CS4400_initial_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CS-4400-Atlanta-Zoo-Database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7050C5-967A-4A0F-8436-ADA6A93D71FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11556" windowHeight="8748" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11556" windowHeight="8748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +360,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -637,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -764,21 +765,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -851,11 +852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,14 +1022,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
